--- a/src/main/resources/TricentisTestData.xlsx
+++ b/src/main/resources/TricentisTestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Salik\ExcelR\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansar\eclipse-workspace\New folder\Tricentis_Project1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7534671-046C-4DAC-A673-7EB9A9CC0F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47A665-68BD-4DB9-B8A2-F22D537D850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC33E403-AF80-4697-9E4F-0D96B2288A3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CC33E403-AF80-4697-9E4F-0D96B2288A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Make</t>
   </si>
@@ -73,6 +75,27 @@
   </si>
   <si>
     <t>Opel</t>
+  </si>
+  <si>
+    <t>Number Of Seats</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Electric Power</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -137,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +169,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401460C-9AD9-4160-BAEF-00C6EC14CC20}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -556,4 +582,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BEFF4F-7E95-4EEE-82F6-4F5105FEA865}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5CA9B-4993-4813-BB6C-E1AE4038479B}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>